--- a/hardware/docs/Angst_Shopping_Cart.xlsx
+++ b/hardware/docs/Angst_Shopping_Cart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\angst\hardware\pcb\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\angst\hardware\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA88749-D89C-48D3-8DD7-4ECAF80A46D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66D5C30-0A23-416A-A635-437A964928E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9660" yWindow="1968" windowWidth="16584" windowHeight="9420" xr2:uid="{4E262781-34EA-4E1C-9F1B-F636C7ED7C37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{4E262781-34EA-4E1C-9F1B-F636C7ED7C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="180">
   <si>
     <t>Column1</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Resistor_SMD:R_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -568,6 +565,24 @@
   </si>
   <si>
     <t>RC0603FR-071K5L</t>
+  </si>
+  <si>
+    <t>595-TLV1117-33CDCYR</t>
+  </si>
+  <si>
+    <t>595-TLV1117-50CDCYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">942-IRLML6401TRPBF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">576-SMAJ8.5CA </t>
+  </si>
+  <si>
+    <t>603-RC0603FR-072K2L</t>
+  </si>
+  <si>
+    <t>RC0603JR-0747KL</t>
   </si>
 </sst>
 </file>
@@ -575,7 +590,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -606,21 +621,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -678,17 +718,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{309DE492-D79A-4A1A-8E3A-3E7B4F85A614}" name="angst" displayName="angst" ref="A1:H87" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{309DE492-D79A-4A1A-8E3A-3E7B4F85A614}" name="angst" displayName="angst" ref="A1:H88" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:H87" xr:uid="{C6187C09-94EE-40B4-8BC0-07B4895061F5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B725C007-3226-4484-9C33-9DC5577B61CA}" uniqueName="1" name="Reference" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{302B4215-FD77-48E3-B031-E6C2398284B8}" uniqueName="2" name=" Value" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{162EF58D-DB08-4D2E-A7E8-2808ABCD4920}" uniqueName="3" name=" Footprint" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{1CEEB7D0-4097-4163-8072-ABA8FA97C89D}" uniqueName="5" name="Unit price" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{B4FDF166-6C58-4E41-9453-B0534E432196}" uniqueName="10" name="Quantity" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{9CB5E11B-ED36-40FC-83A5-C29E904EFF4E}" uniqueName="11" name="Total Price" queryTableFieldId="11" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{3ADE6D8C-3F20-4066-87FD-BC59D86BF909}" uniqueName="12" name="Mouser PN" queryTableFieldId="12" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{F7F63C4D-77B3-46CF-9B95-44EF4A64C1BE}" uniqueName="13" name="Column1" queryTableFieldId="13" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B725C007-3226-4484-9C33-9DC5577B61CA}" uniqueName="1" name="Reference" queryTableFieldId="1" dataDxfId="15" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{302B4215-FD77-48E3-B031-E6C2398284B8}" uniqueName="2" name=" Value" queryTableFieldId="2" dataDxfId="14" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{162EF58D-DB08-4D2E-A7E8-2808ABCD4920}" uniqueName="3" name=" Footprint" queryTableFieldId="3" dataDxfId="13" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{1CEEB7D0-4097-4163-8072-ABA8FA97C89D}" uniqueName="5" name="Unit price" queryTableFieldId="5" dataDxfId="12" totalsRowDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{B4FDF166-6C58-4E41-9453-B0534E432196}" uniqueName="10" name="Quantity" queryTableFieldId="10" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{9CB5E11B-ED36-40FC-83A5-C29E904EFF4E}" uniqueName="11" name="Total Price" totalsRowFunction="custom" queryTableFieldId="11" dataDxfId="10" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(angst[Total Price])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{3ADE6D8C-3F20-4066-87FD-BC59D86BF909}" uniqueName="12" name="Mouser PN" queryTableFieldId="12" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{F7F63C4D-77B3-46CF-9B95-44EF4A64C1BE}" uniqueName="13" name="Column1" queryTableFieldId="13" dataDxfId="8" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -991,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C6ABE8-A4E0-469B-8375-8D2BB5376262}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,16 +1062,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1056,19 +1098,19 @@
         <v>0.95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="3">
         <v>0.85599999999999998</v>
@@ -1081,19 +1123,19 @@
         <v>2.5680000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>6.28</v>
@@ -1106,19 +1148,19 @@
         <v>18.84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="3">
         <v>4.1000000000000002E-2</v>
@@ -1131,19 +1173,19 @@
         <v>2.0500000000000003</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="3">
         <v>2.5999999999999999E-2</v>
@@ -1156,19 +1198,19 @@
         <v>2.6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="3">
         <v>0.107</v>
@@ -1181,16 +1223,16 @@
         <v>1.07</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -1206,60 +1248,60 @@
         <v>0.5</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
+      <c r="D9" s="1">
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F9" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
+      <c r="D10" s="1">
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F10" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -1275,107 +1317,107 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
+      <c r="D12" s="1">
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F12" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
+      <c r="D13" s="1">
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F13" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
+      <c r="D14" s="1">
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F14" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
+      <c r="D15" s="1">
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F15" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D16" s="3">
         <v>0.34899999999999998</v>
@@ -1388,16 +1430,16 @@
         <v>1.7449999999999999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
@@ -1413,63 +1455,63 @@
         <v>1.2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
+      <c r="D18" s="1">
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F18" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
+      <c r="D19" s="1">
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
-      <c r="F19" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F19" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D20" s="3">
         <v>7.9000000000000001E-2</v>
@@ -1482,16 +1524,16 @@
         <v>1.58</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -1507,19 +1549,19 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D22" s="3">
         <v>2.2000000000000002</v>
@@ -1532,16 +1574,16 @@
         <v>13.200000000000001</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
@@ -1557,38 +1599,38 @@
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
+      <c r="D24" s="1">
+        <v>0</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F24" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
@@ -1604,19 +1646,19 @@
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3">
         <v>2.1000000000000001E-2</v>
@@ -1629,16 +1671,16 @@
         <v>2.1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
@@ -1654,16 +1696,16 @@
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -1679,85 +1721,85 @@
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
+      <c r="D29" s="1">
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F29" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
-      <c r="F30" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F30" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="F31" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F31" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D32" s="3">
         <v>0.16600000000000001</v>
@@ -1770,19 +1812,19 @@
         <v>1.6600000000000001</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D33" s="3">
         <v>5.8000000000000003E-2</v>
@@ -1795,635 +1837,635 @@
         <v>1.1600000000000001</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
+      <c r="D34" s="1">
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
       </c>
-      <c r="F34" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F34" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
+      <c r="D35" s="1">
+        <v>0</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
       </c>
-      <c r="F35" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F35" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
+      <c r="D36" s="1">
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
-      <c r="F36" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F36" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>7</v>
+      <c r="D37" s="1">
+        <v>0</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="F37" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F37" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
-      <c r="F38" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F38" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
+      <c r="D39" s="1">
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
       </c>
-      <c r="F39" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F39" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
+      <c r="D40" s="1">
+        <v>0</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
-      <c r="F40" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F40" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>7</v>
+      <c r="D41" s="1">
+        <v>0</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
       </c>
-      <c r="F41" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F41" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
-      <c r="F42" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F42" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F43" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>7</v>
+      <c r="D44" s="1">
+        <v>0</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
-      <c r="F44" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F44" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
+      <c r="D45" s="1">
+        <v>0</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F45" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>7</v>
+      <c r="D46" s="1">
+        <v>0</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
       </c>
-      <c r="F46" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F46" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>7</v>
+      <c r="D47" s="1">
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F47" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>7</v>
+      <c r="D48" s="1">
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F48" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>7</v>
+      <c r="D49" s="1">
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F49" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
       </c>
-      <c r="F50" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F50" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
+      <c r="D51" s="1">
+        <v>0</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
-      <c r="F51" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F51" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>7</v>
+      <c r="D52" s="1">
+        <v>0</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F52" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>7</v>
+      <c r="D53" s="1">
+        <v>0</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
       </c>
-      <c r="F53" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F53" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
       </c>
-      <c r="F54" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F54" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
       </c>
-      <c r="F55" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F55" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>7</v>
+      <c r="D56" s="1">
+        <v>0</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
       </c>
-      <c r="F56" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F56" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>7</v>
+      <c r="D57" s="1">
+        <v>0</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F57" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>7</v>
+      <c r="D58" s="1">
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>10</v>
       </c>
-      <c r="F58" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F58" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>7</v>
+      <c r="D59" s="1">
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F59" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>7</v>
+      <c r="D60" s="1">
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
       </c>
-      <c r="F60" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F60" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>7</v>
+      <c r="D61" s="1">
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
       </c>
-      <c r="F61" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F61" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D62" s="3">
         <v>0.313</v>
@@ -2436,19 +2478,19 @@
         <v>3.13</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" s="3">
         <v>0.03</v>
@@ -2461,41 +2503,41 @@
         <v>1.5</v>
       </c>
       <c r="G63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>7</v>
+      <c r="D64" s="1">
+        <v>0</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
       </c>
-      <c r="F64" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F64" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D65" s="3">
         <v>0.68100000000000005</v>
@@ -2508,19 +2550,19 @@
         <v>3.4050000000000002</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D66" s="3">
         <v>0.41899999999999998</v>
@@ -2533,13 +2575,13 @@
         <v>2.5139999999999998</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>5</v>
@@ -2547,458 +2589,495 @@
       <c r="C67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>7</v>
+      <c r="D67" s="1">
+        <v>0</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
       </c>
-      <c r="F67" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F67" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>7</v>
+      <c r="D68" s="1">
+        <v>0</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
       </c>
-      <c r="F68" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F68" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>7</v>
+      <c r="D69" s="1">
+        <v>0</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
       </c>
-      <c r="F69" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F69" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>7</v>
+      <c r="D70" s="3">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E70" s="1">
-        <v>100</v>
-      </c>
-      <c r="F70" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+        <v>200</v>
+      </c>
+      <c r="F70" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>1</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>7</v>
+      <c r="D71" s="3">
+        <v>0.54</v>
       </c>
       <c r="E71" s="1">
-        <v>6</v>
-      </c>
-      <c r="F71" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+        <v>5</v>
+      </c>
+      <c r="F71" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>2.7</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
       </c>
-      <c r="F72" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F72" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>7</v>
+      <c r="D73" s="1">
+        <v>0</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
       </c>
-      <c r="F73" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F73" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>7</v>
+        <v>118</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.54</v>
       </c>
       <c r="E74" s="1">
-        <v>6</v>
-      </c>
-      <c r="F74" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+        <v>5</v>
+      </c>
+      <c r="F74" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>2.7</v>
       </c>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
       </c>
-      <c r="F75" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F75" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
       </c>
-      <c r="F76" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F76" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>7</v>
+      <c r="D77">
+        <v>0</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
       </c>
-      <c r="F77" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F77" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="3">
+        <v>0.36699999999999999</v>
+      </c>
       <c r="E78" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" s="3">
         <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>0</v>
+        <v>1.835</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>7</v>
+      <c r="D79" s="3">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E79" s="1">
-        <v>30</v>
-      </c>
-      <c r="F79" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+        <v>200</v>
+      </c>
+      <c r="F79" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>178</v>
       </c>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>7</v>
+        <v>101</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.39300000000000002</v>
       </c>
       <c r="E80" s="1">
-        <v>6</v>
-      </c>
-      <c r="F80" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+        <v>5</v>
+      </c>
+      <c r="F80" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>7</v>
+      <c r="D81" s="1">
+        <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>6</v>
-      </c>
-      <c r="F81" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>7</v>
+      <c r="D82" s="3">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E82" s="1">
-        <v>30</v>
-      </c>
-      <c r="F82" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+        <v>200</v>
+      </c>
+      <c r="F82" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>1</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>7</v>
+      <c r="D83" s="1">
+        <v>0</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F83" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>7</v>
+      <c r="D84" s="1">
+        <v>0</v>
       </c>
       <c r="E84" s="1">
         <v>10</v>
       </c>
-      <c r="F84" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F84" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>7</v>
+      <c r="D85" s="1">
+        <v>0</v>
       </c>
       <c r="E85" s="1">
         <v>10</v>
       </c>
-      <c r="F85" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F85" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>7</v>
+      <c r="D86" s="1">
+        <v>0</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
       </c>
-      <c r="F86" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F86" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>7</v>
+      <c r="D87" s="1">
+        <v>0</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
       </c>
-      <c r="F87" s="3" t="e">
-        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
-        <v>#VALUE!</v>
+      <c r="F87" s="3">
+        <f>angst[[#This Row],[Quantity]]*angst[[#This Row],[Unit price]]</f>
+        <v>0</v>
       </c>
       <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1">
+        <f>SUM(angst[Total Price])</f>
+        <v>79.971999999999994</v>
+      </c>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F90" s="4">
+        <v>43581</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
